--- a/Testdata/testdataSearch.xlsx
+++ b/Testdata/testdataSearch.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anuttam\eclipse-workspace\UnacademyAutomation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -27,10 +23,10 @@
     <t>CourseName</t>
   </si>
   <si>
-    <t>Sahil Chhapola</t>
+    <t>UPSC</t>
   </si>
   <si>
-    <t>UPSC</t>
+    <t>sahilchhapola</t>
   </si>
 </sst>
 </file>
@@ -297,7 +293,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -311,10 +309,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
